--- a/data/trans_orig/P23_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>301107</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>275087</v>
+        <v>273504</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>327421</v>
+        <v>328587</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4338643358744326</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3963723946683951</v>
+        <v>0.3940910428281059</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4717799376156926</v>
+        <v>0.4734598172620459</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>160</v>
@@ -765,19 +765,19 @@
         <v>159090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>138316</v>
+        <v>140166</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>180926</v>
+        <v>183111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2311175019593778</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2009383127239242</v>
+        <v>0.2036264616613105</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2628390314140873</v>
+        <v>0.2660143253579201</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>452</v>
@@ -786,19 +786,19 @@
         <v>460197</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>425146</v>
+        <v>427385</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>494218</v>
+        <v>497507</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3329060665115986</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3075499183195341</v>
+        <v>0.3091700619138086</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3575166544960234</v>
+        <v>0.3598959969785844</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>392905</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>366591</v>
+        <v>365425</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>418925</v>
+        <v>420508</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5661356641255675</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5282200623843073</v>
+        <v>0.5265401827379541</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6036276053316048</v>
+        <v>0.6059089571718942</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>536</v>
@@ -836,19 +836,19 @@
         <v>529261</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>507425</v>
+        <v>505240</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>550035</v>
+        <v>548185</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7688824980406221</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7371609685859128</v>
+        <v>0.7339856746420802</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.799061687276076</v>
+        <v>0.7963735383386895</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>927</v>
@@ -857,19 +857,19 @@
         <v>922166</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>888145</v>
+        <v>884856</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>957217</v>
+        <v>954978</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6670939334884014</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6424833455039766</v>
+        <v>0.6401040030214156</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.692450081680466</v>
+        <v>0.6908299380861913</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>385374</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>353064</v>
+        <v>354469</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>417278</v>
+        <v>419503</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4011140601181135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3674846427504092</v>
+        <v>0.3689477006949963</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4343213482888403</v>
+        <v>0.4366375520708863</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>210</v>
@@ -982,19 +982,19 @@
         <v>222116</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>195715</v>
+        <v>196964</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>248419</v>
+        <v>252143</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2293654716645525</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2021025586749177</v>
+        <v>0.2033921884512981</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2565270477874852</v>
+        <v>0.2603723082492233</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>569</v>
@@ -1003,19 +1003,19 @@
         <v>607489</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>567274</v>
+        <v>564168</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>653704</v>
+        <v>649172</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3148998863241511</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2940538688721309</v>
+        <v>0.2924436908646412</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3388555588150444</v>
+        <v>0.3365064230127802</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>575384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>543480</v>
+        <v>541255</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>607694</v>
+        <v>606289</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5988859398818865</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5656786517111595</v>
+        <v>0.5633624479291135</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6325153572495907</v>
+        <v>0.6310522993050034</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>698</v>
@@ -1053,19 +1053,19 @@
         <v>746277</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>719974</v>
+        <v>716250</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>772678</v>
+        <v>771429</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7706345283354474</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7434729522125147</v>
+        <v>0.7396276917507765</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7978974413250822</v>
+        <v>0.7966078115487019</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1234</v>
@@ -1074,19 +1074,19 @@
         <v>1321662</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1275447</v>
+        <v>1279979</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1361877</v>
+        <v>1364983</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.685100113675849</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6611444411849556</v>
+        <v>0.6634935769872198</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7059461311278692</v>
+        <v>0.7075563091353587</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>245272</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>218428</v>
+        <v>217984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>269987</v>
+        <v>271219</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.361487463271255</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3219239223541186</v>
+        <v>0.3212687706790016</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3979115899889163</v>
+        <v>0.3997276881636425</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>169</v>
@@ -1199,19 +1199,19 @@
         <v>163059</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>141134</v>
+        <v>141648</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>185911</v>
+        <v>185437</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2384454213087576</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2063847020566092</v>
+        <v>0.2071356851866284</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2718630355397096</v>
+        <v>0.2711693207262834</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>399</v>
@@ -1220,19 +1220,19 @@
         <v>408331</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>374978</v>
+        <v>373950</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>439998</v>
+        <v>442771</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2997256542757138</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2752437189752601</v>
+        <v>0.2744891763458449</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3229696049082492</v>
+        <v>0.3250055967688705</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>433237</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>408522</v>
+        <v>407290</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>460081</v>
+        <v>460525</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.638512536728745</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6020884100110836</v>
+        <v>0.6002723118363574</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6780760776458813</v>
+        <v>0.6787312293209983</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>527</v>
@@ -1270,19 +1270,19 @@
         <v>520782</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>497930</v>
+        <v>498404</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>542707</v>
+        <v>542193</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7615545786912424</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7281369644602905</v>
+        <v>0.7288306792737166</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7936152979433908</v>
+        <v>0.7928643148133716</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>938</v>
@@ -1291,19 +1291,19 @@
         <v>954019</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>922352</v>
+        <v>919579</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>987372</v>
+        <v>988400</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7002743457242863</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6770303950917509</v>
+        <v>0.6749944032311296</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7247562810247402</v>
+        <v>0.7255108236541551</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>373508</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>347993</v>
+        <v>343712</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>405948</v>
+        <v>403685</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3964122456126752</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.369331859517828</v>
+        <v>0.36478900516034</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4308415027604259</v>
+        <v>0.4284394726202673</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>275</v>
@@ -1416,19 +1416,19 @@
         <v>285539</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>258225</v>
+        <v>259745</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>315604</v>
+        <v>315412</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2749233890844879</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2486250411229379</v>
+        <v>0.2500888560692423</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3038713241849813</v>
+        <v>0.3036861924759435</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>666</v>
@@ -1437,19 +1437,19 @@
         <v>659047</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>617678</v>
+        <v>611532</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>703340</v>
+        <v>695124</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3327119162134614</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3118272663974823</v>
+        <v>0.3087243179442677</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3550729065886209</v>
+        <v>0.3509248309174164</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>568714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>536274</v>
+        <v>538537</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>594229</v>
+        <v>598510</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6035877543873248</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5691584972395738</v>
+        <v>0.5715605273797328</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6306681404821719</v>
+        <v>0.6352109948396603</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>722</v>
@@ -1487,19 +1487,19 @@
         <v>753073</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>723008</v>
+        <v>723200</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>780387</v>
+        <v>778867</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7250766109155121</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6961286758150187</v>
+        <v>0.6963138075240561</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7513749588770621</v>
+        <v>0.7499111439307578</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1325</v>
@@ -1508,19 +1508,19 @@
         <v>1321787</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1277494</v>
+        <v>1285710</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1363156</v>
+        <v>1369302</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6672880837865387</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6449270934113791</v>
+        <v>0.6490751690825836</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6881727336025177</v>
+        <v>0.6912756820557322</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1305261</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1247866</v>
+        <v>1252625</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1366133</v>
+        <v>1360075</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3984921505936019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.380969642021169</v>
+        <v>0.3824223081344389</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4170760450911604</v>
+        <v>0.4152264714443021</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>814</v>
@@ -1633,19 +1633,19 @@
         <v>829803</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>779274</v>
+        <v>778464</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>881915</v>
+        <v>883055</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2455622932328739</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2306090796420667</v>
+        <v>0.2303695009626821</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2609835619689522</v>
+        <v>0.2613209926347024</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2086</v>
@@ -1654,19 +1654,19 @@
         <v>2135065</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2061780</v>
+        <v>2067145</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2223353</v>
+        <v>2212167</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3208357136936954</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3098232429060634</v>
+        <v>0.3106293652586773</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3341027434465323</v>
+        <v>0.3324219212670809</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1970240</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1909368</v>
+        <v>1915426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2027635</v>
+        <v>2022876</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6015078494063981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5829239549088396</v>
+        <v>0.584773528555698</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6190303579788311</v>
+        <v>0.6175776918655612</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2483</v>
@@ -1704,19 +1704,19 @@
         <v>2549394</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2497282</v>
+        <v>2496142</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2599923</v>
+        <v>2600733</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7544377067671261</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7390164380310477</v>
+        <v>0.7386790073652977</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7693909203579333</v>
+        <v>0.7696304990373179</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4424</v>
@@ -1725,19 +1725,19 @@
         <v>4519633</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4431345</v>
+        <v>4442531</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4592918</v>
+        <v>4587553</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6791642863063047</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6658972565534677</v>
+        <v>0.667578078732919</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6901767570939366</v>
+        <v>0.6893706347413227</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>260556</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>234753</v>
+        <v>235501</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>287435</v>
+        <v>287571</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.370387428543913</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3337072341025066</v>
+        <v>0.3347702793179215</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4085960628189519</v>
+        <v>0.4087892012417326</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>147</v>
@@ -2090,19 +2090,19 @@
         <v>160835</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>138503</v>
+        <v>140473</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>184672</v>
+        <v>186164</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2307370270687338</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1986988365901563</v>
+        <v>0.2015248198118322</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2649342619288223</v>
+        <v>0.2670745347957225</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>398</v>
@@ -2111,19 +2111,19 @@
         <v>421391</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>386785</v>
+        <v>384645</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>457918</v>
+        <v>455444</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3008822566951915</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2761724526694418</v>
+        <v>0.2746443537025139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.326962747310901</v>
+        <v>0.3251963532937812</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>442913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>416034</v>
+        <v>415898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468716</v>
+        <v>467968</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6296125714560871</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5914039371810479</v>
+        <v>0.5912107987582673</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6662927658974931</v>
+        <v>0.6652297206820784</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>503</v>
@@ -2161,19 +2161,19 @@
         <v>536215</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>512378</v>
+        <v>510886</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>558547</v>
+        <v>556577</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7692629729312662</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7350657380711776</v>
+        <v>0.7329254652042775</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8013011634098436</v>
+        <v>0.7984751801881678</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>926</v>
@@ -2182,19 +2182,19 @@
         <v>979128</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>942601</v>
+        <v>945075</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1013734</v>
+        <v>1015874</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6991177433048085</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6730372526890991</v>
+        <v>0.6748036467062188</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7238275473305582</v>
+        <v>0.7253556462974862</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>380459</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>349620</v>
+        <v>350433</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>413511</v>
+        <v>411466</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3741298301397314</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3438039084929604</v>
+        <v>0.3446025605446478</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4066317169809981</v>
+        <v>0.4046205200231108</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>263</v>
@@ -2307,19 +2307,19 @@
         <v>288327</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>259829</v>
+        <v>257344</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>318329</v>
+        <v>317818</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2793370015381093</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2517270868220585</v>
+        <v>0.2493197546210649</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3084033745260734</v>
+        <v>0.3079083189002896</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>612</v>
@@ -2328,19 +2328,19 @@
         <v>668787</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>626550</v>
+        <v>627836</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>718045</v>
+        <v>717393</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3263802978196311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3057681255233167</v>
+        <v>0.3063956754906625</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3504192574968807</v>
+        <v>0.3501013673376061</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>636459</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>603407</v>
+        <v>605452</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>667298</v>
+        <v>666485</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6258701698602686</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5933682830190019</v>
+        <v>0.5953794799768892</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6561960915070398</v>
+        <v>0.6553974394553521</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>677</v>
@@ -2378,19 +2378,19 @@
         <v>743857</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>713855</v>
+        <v>714366</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>772355</v>
+        <v>774840</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7206629984618907</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6915966254739266</v>
+        <v>0.6920916810997105</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7482729131779416</v>
+        <v>0.7506802453789351</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1263</v>
@@ -2399,19 +2399,19 @@
         <v>1380315</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1331057</v>
+        <v>1331709</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1422552</v>
+        <v>1421266</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6736197021803689</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6495807425031193</v>
+        <v>0.649898632662394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6942318744766832</v>
+        <v>0.6936043245093375</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>281665</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>253796</v>
+        <v>254163</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>309187</v>
+        <v>309394</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3717745978361005</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3349893285912589</v>
+        <v>0.3354741445460939</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4081020097664471</v>
+        <v>0.4083750289314124</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>198</v>
@@ -2524,19 +2524,19 @@
         <v>221086</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>194387</v>
+        <v>195369</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>249011</v>
+        <v>247217</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2848387468475409</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2504414427252573</v>
+        <v>0.2517065284802977</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3208172517946803</v>
+        <v>0.3185054584002327</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>452</v>
@@ -2545,19 +2545,19 @@
         <v>502751</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>463725</v>
+        <v>464351</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>542111</v>
+        <v>538752</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.327780833410707</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3023373776862138</v>
+        <v>0.3027449714171112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3534428463823234</v>
+        <v>0.3512529092096491</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>475958</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>448436</v>
+        <v>448229</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>503827</v>
+        <v>503460</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6282254021638995</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5918979902335528</v>
+        <v>0.5916249710685876</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6650106714087411</v>
+        <v>0.664525855453906</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>506</v>
@@ -2595,19 +2595,19 @@
         <v>555092</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>527167</v>
+        <v>528961</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>581791</v>
+        <v>580809</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.715161253152459</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6791827482053198</v>
+        <v>0.6814945415997672</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7495585572747427</v>
+        <v>0.7482934715197024</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>941</v>
@@ -2616,19 +2616,19 @@
         <v>1031050</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>991690</v>
+        <v>995049</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1070076</v>
+        <v>1069450</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.672219166589293</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6465571536176766</v>
+        <v>0.648747090790351</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6976626223137863</v>
+        <v>0.6972550285828888</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>339955</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>311602</v>
+        <v>308842</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>373029</v>
+        <v>367374</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3587014293502253</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3287846134599628</v>
+        <v>0.3258724760746196</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3935993963367342</v>
+        <v>0.3876318790573368</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>273</v>
@@ -2741,19 +2741,19 @@
         <v>288573</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>259487</v>
+        <v>259441</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>319236</v>
+        <v>319278</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2745919950685277</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.246915701008002</v>
+        <v>0.2468719832570074</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3037693996528032</v>
+        <v>0.3038093134665193</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>604</v>
@@ -2762,19 +2762,19 @@
         <v>628528</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>588042</v>
+        <v>588738</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>671950</v>
+        <v>672011</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3144757394403205</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2942190209808705</v>
+        <v>0.2945672051588258</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3362012842719133</v>
+        <v>0.3362320122198796</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>607784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>574710</v>
+        <v>580365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>636137</v>
+        <v>638897</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6412985706497747</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6064006036632656</v>
+        <v>0.6123681209426632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6712153865400371</v>
+        <v>0.6741275239253804</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>729</v>
@@ -2812,19 +2812,19 @@
         <v>762342</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>731679</v>
+        <v>731637</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>791428</v>
+        <v>791474</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7254080049314723</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6962306003471969</v>
+        <v>0.6961906865334807</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.753084298991998</v>
+        <v>0.7531280167429926</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1308</v>
@@ -2833,19 +2833,19 @@
         <v>1370126</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1326704</v>
+        <v>1326643</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1410612</v>
+        <v>1409916</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6855242605596795</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6637987157280868</v>
+        <v>0.6637679877801204</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7057809790191294</v>
+        <v>0.7054327948411742</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1262636</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1205043</v>
+        <v>1207148</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1324394</v>
+        <v>1322517</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3685721713591514</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3517604048391249</v>
+        <v>0.3523748024990001</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3865999470064571</v>
+        <v>0.3860519241670833</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>881</v>
@@ -2958,19 +2958,19 @@
         <v>958821</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>905199</v>
+        <v>902419</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1019106</v>
+        <v>1012042</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.269609865333557</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2545320334610676</v>
+        <v>0.2537503818183868</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2865613260194423</v>
+        <v>0.2845751344166443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2066</v>
@@ -2979,19 +2979,19 @@
         <v>2221457</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2141506</v>
+        <v>2144027</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2309145</v>
+        <v>2306555</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3181656287804336</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3067147429424985</v>
+        <v>0.3070758325793712</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3307246937603189</v>
+        <v>0.3303537794642027</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2163113</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2101355</v>
+        <v>2103232</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2220706</v>
+        <v>2218601</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6314278286408486</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6134000529935431</v>
+        <v>0.6139480758329168</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6482395951608751</v>
+        <v>0.647625197501</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2415</v>
@@ -3029,19 +3029,19 @@
         <v>2597506</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2537221</v>
+        <v>2544285</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2651128</v>
+        <v>2653908</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7303901346664431</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.713438673980557</v>
+        <v>0.7154248655833557</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7454679665389323</v>
+        <v>0.7462496181816133</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4438</v>
@@ -3050,19 +3050,19 @@
         <v>4760619</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4672931</v>
+        <v>4675521</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4840570</v>
+        <v>4838049</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6818343712195664</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6692753062396811</v>
+        <v>0.6696462205357973</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6932852570575015</v>
+        <v>0.6929241674206289</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>250552</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>225290</v>
+        <v>225391</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>277645</v>
+        <v>275699</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3712976079623061</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3338611676095604</v>
+        <v>0.3340109672870744</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4114474555116718</v>
+        <v>0.4085643038966584</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>168</v>
@@ -3415,19 +3415,19 @@
         <v>168409</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>146269</v>
+        <v>147669</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>192698</v>
+        <v>192858</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2507098113278939</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2177500585186067</v>
+        <v>0.2198333742677101</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2868677096581573</v>
+        <v>0.2871059157912224</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>405</v>
@@ -3436,19 +3436,19 @@
         <v>418961</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>387955</v>
+        <v>386594</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>453581</v>
+        <v>452868</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3111411780207766</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2881149179878671</v>
+        <v>0.2871035863442687</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3368518341123359</v>
+        <v>0.3363225304209573</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>424248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>397155</v>
+        <v>399101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449510</v>
+        <v>449409</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.628702392037694</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5885525444883282</v>
+        <v>0.5914356961033416</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.666138832390439</v>
+        <v>0.6659890327129255</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>497</v>
@@ -3486,19 +3486,19 @@
         <v>503321</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>479032</v>
+        <v>478872</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>525461</v>
+        <v>524061</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7492901886721062</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7131322903418426</v>
+        <v>0.7128940842087784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7822499414813933</v>
+        <v>0.78016662573229</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>912</v>
@@ -3507,19 +3507,19 @@
         <v>927569</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>892949</v>
+        <v>893662</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>958575</v>
+        <v>959936</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6888588219792234</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6631481658876641</v>
+        <v>0.6636774695790427</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.711885082012133</v>
+        <v>0.7128964136557313</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>334788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>304899</v>
+        <v>304011</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>366059</v>
+        <v>366881</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3277865067815245</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2985227076189479</v>
+        <v>0.2976538716652484</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3584036007419799</v>
+        <v>0.3592089198489611</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>261</v>
@@ -3632,19 +3632,19 @@
         <v>270928</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>242220</v>
+        <v>242540</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>300505</v>
+        <v>300064</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.260011308724465</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2324596907240454</v>
+        <v>0.23276725233721</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2883962436804103</v>
+        <v>0.2879729815847988</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>564</v>
@@ -3653,19 +3653,19 @@
         <v>605716</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>564369</v>
+        <v>560483</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>650883</v>
+        <v>645301</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2935601495042545</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2735217596021586</v>
+        <v>0.2716384058951963</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3154505207459227</v>
+        <v>0.3127453146415384</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>686571</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>655300</v>
+        <v>654478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>716460</v>
+        <v>717348</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6722134932184755</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6415963992580203</v>
+        <v>0.6407910801510388</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7014772923810522</v>
+        <v>0.7023461283347516</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>715</v>
@@ -3703,19 +3703,19 @@
         <v>771057</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>741480</v>
+        <v>741921</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>799765</v>
+        <v>799445</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.739988691275535</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7116037563195896</v>
+        <v>0.7120270184152012</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7675403092759546</v>
+        <v>0.76723274766279</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1362</v>
@@ -3724,19 +3724,19 @@
         <v>1457628</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1412461</v>
+        <v>1418043</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1498975</v>
+        <v>1502861</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7064398504957455</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6845494792540773</v>
+        <v>0.6872546853584617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7264782403978414</v>
+        <v>0.7283615941048037</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>309010</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>281498</v>
+        <v>283447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>336490</v>
+        <v>337786</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4072955114794186</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3710322055630618</v>
+        <v>0.3736009048118401</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4435159023515199</v>
+        <v>0.4452239952036673</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>218</v>
@@ -3849,19 +3849,19 @@
         <v>225257</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>200624</v>
+        <v>200669</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>250340</v>
+        <v>248865</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2877237162295818</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2562588977824102</v>
+        <v>0.2563168393973038</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3197614624964526</v>
+        <v>0.3178779248988568</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>494</v>
@@ -3870,19 +3870,19 @@
         <v>534267</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>493350</v>
+        <v>496748</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>572638</v>
+        <v>576674</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3465708147344895</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3200284333769179</v>
+        <v>0.322232402950316</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3714614381287391</v>
+        <v>0.3740795049785521</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>449678</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>422198</v>
+        <v>420902</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>477190</v>
+        <v>475241</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5927044885205814</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5564840976484801</v>
+        <v>0.5547760047963326</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.628967794436938</v>
+        <v>0.6263990951881598</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>516</v>
@@ -3920,19 +3920,19 @@
         <v>557638</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>532555</v>
+        <v>534030</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>582271</v>
+        <v>582226</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7122762837704183</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6802385375035477</v>
+        <v>0.6821220751011432</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7437411022175898</v>
+        <v>0.7436831606026962</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>935</v>
@@ -3941,19 +3941,19 @@
         <v>1007315</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>968944</v>
+        <v>964908</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1048232</v>
+        <v>1044834</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6534291852655105</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6285385618712606</v>
+        <v>0.6259204950214476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.679971566623082</v>
+        <v>0.677767597049684</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>281788</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>254371</v>
+        <v>254894</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>309089</v>
+        <v>311447</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3005521831405399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2713095092360451</v>
+        <v>0.2718674500941272</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3296711581628481</v>
+        <v>0.3321860138985115</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>246</v>
@@ -4066,19 +4066,19 @@
         <v>257384</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>228170</v>
+        <v>231549</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>288509</v>
+        <v>288923</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.24689271458939</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2188697697761981</v>
+        <v>0.2221102519082762</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2767488012029409</v>
+        <v>0.277146288713232</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>524</v>
@@ -4087,19 +4087,19 @@
         <v>539172</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>494670</v>
+        <v>496828</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>577291</v>
+        <v>580787</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2723006990549374</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2498258273541775</v>
+        <v>0.2509157240964967</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2915521852703119</v>
+        <v>0.2933176788737412</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>655779</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>628478</v>
+        <v>626120</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>683196</v>
+        <v>682673</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.69944781685946</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6703288418371519</v>
+        <v>0.6678139861014885</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7286904907639552</v>
+        <v>0.7281325499058724</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>712</v>
@@ -4137,19 +4137,19 @@
         <v>785110</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>753985</v>
+        <v>753571</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>814324</v>
+        <v>810945</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.75310728541061</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7232511987970591</v>
+        <v>0.7228537112867679</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7811302302238019</v>
+        <v>0.7778897480917237</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1366</v>
@@ -4158,19 +4158,19 @@
         <v>1440889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1402770</v>
+        <v>1399274</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1485391</v>
+        <v>1483233</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7276993009450626</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7084478147296881</v>
+        <v>0.7066823211262576</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7501741726458224</v>
+        <v>0.7490842759035031</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1176137</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1119128</v>
+        <v>1116145</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1231797</v>
+        <v>1230954</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3466962845575992</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3298913901695234</v>
+        <v>0.3290120175879894</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3631035297314275</v>
+        <v>0.3628549158123226</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>893</v>
@@ -4283,19 +4283,19 @@
         <v>921979</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>869446</v>
+        <v>867694</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>975772</v>
+        <v>980415</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2605119304646502</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2456685304786344</v>
+        <v>0.2451734870609874</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2757115418303183</v>
+        <v>0.2770235842803463</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1987</v>
@@ -4304,19 +4304,19 @@
         <v>2098116</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2015935</v>
+        <v>2024341</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2177136</v>
+        <v>2182727</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3026921600306471</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2908360125738308</v>
+        <v>0.292048827185374</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3140923339294397</v>
+        <v>0.3148988635813798</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2216277</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2160617</v>
+        <v>2161460</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2273286</v>
+        <v>2276269</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6533037154424008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6368964702685724</v>
+        <v>0.6371450841876773</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6701086098304765</v>
+        <v>0.6709879824120105</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2440</v>
@@ -4354,19 +4354,19 @@
         <v>2617124</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2563331</v>
+        <v>2558688</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2669657</v>
+        <v>2671409</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7394880695353498</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7242884581696817</v>
+        <v>0.7229764157196541</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7543314695213658</v>
+        <v>0.7548265129390126</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4575</v>
@@ -4375,19 +4375,19 @@
         <v>4833401</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4754381</v>
+        <v>4748790</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4915582</v>
+        <v>4907176</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6973078399693529</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6859076660705602</v>
+        <v>0.6851011364186201</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.709163987426169</v>
+        <v>0.7079511728146259</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>192912</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>169496</v>
+        <v>168635</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>219801</v>
+        <v>220148</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.279733346595178</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2457793472095444</v>
+        <v>0.2445299534580368</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3187235380284512</v>
+        <v>0.3192272996591443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>188</v>
@@ -4740,19 +4740,19 @@
         <v>129892</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>113296</v>
+        <v>114479</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150444</v>
+        <v>152371</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1771781655348796</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1545408174628461</v>
+        <v>0.1561539644858853</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2052129269597058</v>
+        <v>0.2078407697722825</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>377</v>
@@ -4761,19 +4761,19 @@
         <v>322804</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>292458</v>
+        <v>293133</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>353981</v>
+        <v>357651</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2268884796645483</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2055596425878323</v>
+        <v>0.2060339665429268</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2488018347836723</v>
+        <v>0.2513819456681215</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>496716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>469827</v>
+        <v>469480</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>520132</v>
+        <v>520993</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.720266653404822</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6812764619715489</v>
+        <v>0.6807727003408551</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7542206527904557</v>
+        <v>0.7554700465419631</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1051</v>
@@ -4811,19 +4811,19 @@
         <v>603221</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>582669</v>
+        <v>580742</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>619817</v>
+        <v>618634</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8228218344651205</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7947870730402942</v>
+        <v>0.7921592302277174</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8454591825371537</v>
+        <v>0.8438460355141145</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1591</v>
@@ -4832,19 +4832,19 @@
         <v>1099937</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1068760</v>
+        <v>1065090</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1130283</v>
+        <v>1129608</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7731115203354516</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.751198165216328</v>
+        <v>0.7486180543318787</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7944403574121678</v>
+        <v>0.7939660334570734</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>254952</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>223388</v>
+        <v>221762</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>285795</v>
+        <v>288265</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2433268826419897</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2132020343073754</v>
+        <v>0.2116498777028213</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2727636746318916</v>
+        <v>0.2751209815650689</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>260</v>
@@ -4957,19 +4957,19 @@
         <v>195819</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>176774</v>
+        <v>173504</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>221289</v>
+        <v>222223</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1828649287416532</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1650800115502632</v>
+        <v>0.1620259233130529</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2066499472826346</v>
+        <v>0.2075224751136088</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>485</v>
@@ -4978,19 +4978,19 @@
         <v>450771</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>415300</v>
+        <v>411355</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>493583</v>
+        <v>491974</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2127668210014368</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1960244862147283</v>
+        <v>0.1941624932273185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2329742969596424</v>
+        <v>0.2322152047476772</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>792824</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>761981</v>
+        <v>759511</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>824388</v>
+        <v>826014</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7566731173580102</v>
+        <v>0.7566731173580101</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7272363253681083</v>
+        <v>0.7248790184349312</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7867979656926247</v>
+        <v>0.7883501222971787</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1256</v>
@@ -5028,19 +5028,19 @@
         <v>875019</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>849549</v>
+        <v>848615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>894064</v>
+        <v>897334</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8171350712583469</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7933500527173657</v>
+        <v>0.7924775248863913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8349199884497369</v>
+        <v>0.8379740766869471</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1994</v>
@@ -5049,19 +5049,19 @@
         <v>1667843</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1625031</v>
+        <v>1626640</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1703314</v>
+        <v>1707259</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7872331789985633</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7670257030403576</v>
+        <v>0.7677847952523228</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8039755137852718</v>
+        <v>0.8058375067726815</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>214326</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>183583</v>
+        <v>187742</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>245174</v>
+        <v>246400</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2672748498908972</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2289362076932956</v>
+        <v>0.2341233869228812</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3057428512669647</v>
+        <v>0.3072724949924867</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>219</v>
@@ -5174,19 +5174,19 @@
         <v>173921</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152186</v>
+        <v>153144</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>197211</v>
+        <v>197283</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2141203981565846</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1873617561465688</v>
+        <v>0.1885412771693547</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.242793001712303</v>
+        <v>0.2428822558853596</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>383</v>
@@ -5195,19 +5195,19 @@
         <v>388248</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>350035</v>
+        <v>350073</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>426134</v>
+        <v>427288</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2405269861004049</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2168538423980503</v>
+        <v>0.2168769677735468</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2639981191488283</v>
+        <v>0.2647133801087358</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>587569</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>556721</v>
+        <v>555495</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>618312</v>
+        <v>614153</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7327251501091029</v>
+        <v>0.7327251501091028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6942571487330353</v>
+        <v>0.6927275050075137</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7710637923067044</v>
+        <v>0.7658766130771189</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>828</v>
@@ -5245,19 +5245,19 @@
         <v>638338</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>615048</v>
+        <v>614976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>660073</v>
+        <v>659115</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7858796018434154</v>
+        <v>0.7858796018434152</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.757206998287697</v>
+        <v>0.7571177441146405</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8126382438534314</v>
+        <v>0.8114587228306452</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1339</v>
@@ -5266,19 +5266,19 @@
         <v>1225906</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1188020</v>
+        <v>1186866</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1264119</v>
+        <v>1264081</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.759473013899595</v>
+        <v>0.7594730138995951</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7360018808511717</v>
+        <v>0.7352866198912642</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7831461576019496</v>
+        <v>0.783123032226454</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>239558</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>211903</v>
+        <v>212393</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>267619</v>
+        <v>266954</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2419624907411758</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2140303787052835</v>
+        <v>0.2145251992062417</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2703053102964267</v>
+        <v>0.2696340247043757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>285</v>
@@ -5391,19 +5391,19 @@
         <v>207582</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>185115</v>
+        <v>185447</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>230183</v>
+        <v>230151</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1861440645094473</v>
+        <v>0.1861440645094474</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1659969660105539</v>
+        <v>0.1662943981656577</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2064103067570357</v>
+        <v>0.206381657567166</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>518</v>
@@ -5412,19 +5412,19 @@
         <v>447140</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>415215</v>
+        <v>411506</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>487263</v>
+        <v>487737</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2123947206168778</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1972299573443135</v>
+        <v>0.1954680097473459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2314533558555638</v>
+        <v>0.2316786942221715</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>750504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>722443</v>
+        <v>723108</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>778159</v>
+        <v>777669</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7580375092588242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7296946897035734</v>
+        <v>0.7303659752956244</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7859696212947166</v>
+        <v>0.7854748007937583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1274</v>
@@ -5462,19 +5462,19 @@
         <v>907588</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>884987</v>
+        <v>885019</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>930055</v>
+        <v>929723</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8138559354905527</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7935896932429642</v>
+        <v>0.7936183424328338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8340030339894461</v>
+        <v>0.8337056018343419</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2047</v>
@@ -5483,19 +5483,19 @@
         <v>1658092</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1617969</v>
+        <v>1617495</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1690017</v>
+        <v>1693726</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7876052793831221</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7685466441444362</v>
+        <v>0.7683213057778288</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8027700426556865</v>
+        <v>0.804531990252654</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>901748</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>840920</v>
+        <v>844937</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>959501</v>
+        <v>959800</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2554990116196763</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2382641432519156</v>
+        <v>0.2394022922885192</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2718623964469848</v>
+        <v>0.2719471848166741</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>952</v>
@@ -5608,19 +5608,19 @@
         <v>707214</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>663222</v>
+        <v>666124</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>747844</v>
+        <v>756338</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.18953143835764</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1777417211281965</v>
+        <v>0.178519485723527</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2004202949547753</v>
+        <v>0.2026964780136919</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1763</v>
@@ -5629,19 +5629,19 @@
         <v>1608962</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1537825</v>
+        <v>1538225</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1683452</v>
+        <v>1684558</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2215975019216167</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2118000868114483</v>
+        <v>0.2118551120516892</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2318568348086373</v>
+        <v>0.2320091775632078</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2627613</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2569860</v>
+        <v>2569561</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2688441</v>
+        <v>2684424</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7445009883803236</v>
+        <v>0.7445009883803237</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7281376035530159</v>
+        <v>0.7280528151833261</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7617358567480844</v>
+        <v>0.7605977077114809</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4409</v>
@@ -5679,19 +5679,19 @@
         <v>3024166</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2983536</v>
+        <v>2975042</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3068158</v>
+        <v>3065256</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.81046856164236</v>
+        <v>0.8104685616423599</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7995797050452246</v>
+        <v>0.7973035219863079</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.822258278871803</v>
+        <v>0.821480514276473</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6971</v>
@@ -5700,19 +5700,19 @@
         <v>5651778</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5577288</v>
+        <v>5576182</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5722915</v>
+        <v>5722515</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7784024980783832</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7681431651913628</v>
+        <v>0.7679908224367922</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7881999131885518</v>
+        <v>0.7881448879483108</v>
       </c>
     </row>
     <row r="18">
